--- a/storage/app/public/users/jose.jdgo97/PERSUASIVO.xlsx
+++ b/storage/app/public/users/jose.jdgo97/PERSUASIVO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\REPOSITORIOS - DOWNLOADS\multimedia_cam\public\storage\users\jose.jdgo97\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\versiones cam\multimedia_cam4\public\storage\users\jose.jdgo97\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E759CD55-1FBD-4292-AC71-51856DBDD700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1E8BB5-62BC-4BD5-818E-F1A280574D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R415"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,7 +853,7 @@
         <v>15</v>
       </c>
       <c r="O5" s="18">
-        <v>45719</v>
+        <v>45726</v>
       </c>
       <c r="P5" s="19">
         <v>0.14583333333333334</v>

--- a/storage/app/public/users/jose.jdgo97/PERSUASIVO.xlsx
+++ b/storage/app/public/users/jose.jdgo97/PERSUASIVO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\versiones cam\multimedia_cam4\public\storage\users\jose.jdgo97\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\versiones cam\multimedia_cam3\public\storage\users\jose.jdgo97\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1E8BB5-62BC-4BD5-818E-F1A280574D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA868D2B-2940-4852-9F1F-C4BFEC04A2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,7 +687,7 @@
   <dimension ref="A1:R415"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,7 +853,7 @@
         <v>15</v>
       </c>
       <c r="O5" s="18">
-        <v>45726</v>
+        <v>45719</v>
       </c>
       <c r="P5" s="19">
         <v>0.14583333333333334</v>

--- a/storage/app/public/users/jose.jdgo97/PERSUASIVO.xlsx
+++ b/storage/app/public/users/jose.jdgo97/PERSUASIVO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\multimedia_cam3\storage\app\public\users\jose.jdgo97\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF7F4E2-AA4D-440E-ADCC-D19ECCFE961F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF63B85-E2F9-4ACB-90EF-D0D1D01EDA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,7 +687,7 @@
   <dimension ref="A1:R415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,6 +730,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="24">
+        <f>COUNTIF(A5:A14, "&lt;&gt;")</f>
         <v>10</v>
       </c>
       <c r="C2" s="24"/>
@@ -746,6 +747,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="24">
+        <f>COUNTIF(H5:H14, "&lt;&gt;")</f>
         <v>10</v>
       </c>
       <c r="C3" s="24"/>
